--- a/DOC/コーディング規約/コーディング規約.xlsx
+++ b/DOC/コーディング規約/コーディング規約.xlsx
@@ -7,7 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="コーディング規約" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表紙" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="改訂履歴" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="目次" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_プロジェクト構成" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_命名規則" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_型ヒント" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4_Pydanticモデル" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5_依存関係" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_設定ファイル" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_ログ出力" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8_テスト" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9_推奨ツール" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +28,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,10 +44,29 @@
     <font>
       <name val="Yu Gothic"/>
       <b val="1"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Yu Gothic"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <b val="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -44,17 +74,23 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="Yu Gothic"/>
+      <name val="Consolas"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+        <bgColor rgb="00DDDDDD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,22 +105,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -450,7 +525,112 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C38"/>
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="30" customHeight="1">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>FastAPI プロジェクト</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>コーディング規約</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>作成日:</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>2025年05月19日</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>バージョン:</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>作成者:</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>EM開発チーム</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>目的</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>このドキュメントはFastAPIプロジェクトのコーディング規約を定義し、チーム開発やコードの一貫性を保つことを目的としています。すべての開発者はこの規約に従ってコードを作成することが求められます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,34 +643,530 @@
     <col width="60" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FastAPI コーディング規約</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>目的</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>このドキュメントはFastAPIプロジェクトのコーディング規約を定義し、チーム開発やコードの一貫性を保つことを目的としています。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
+        <is>
+          <t>7. ログ出力の統一</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>ログ出力を統一することで、アプリケーションの動作を追跡しやすくなります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>ロガーの設定</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+import logging
+logger = logging.getLogger(__name__)
+logger.setLevel(logging.INFO)
+    </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="17" t="inlineStr">
+        <is>
+          <t>8. テストの命名と構成</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>テストコードは一貫した命名規則と構成に従うことで、保守性と理解しやすさが向上します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>テスト関数</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def test_create_user(client):
+    response = client.post("/users", json={"email": "test@example.com", "password": "123456"})
+    assert response.status_code == 200
+    </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="17" t="inlineStr">
+        <is>
+          <t>9. 推奨ツール</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>以下のツールを使用することで、コードの品質と一貫性を保つことができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>ツール名</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="19" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>コードフォーマッター: コードスタイルを自動的に統一します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>isort</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>インポート整理: インポート文を整理します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>mypy</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>静的型チェック: 型ヒントに基づいて型エラーを検出します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>ruff</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>リンター: コードの問題を検出します。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="30" customHeight="1">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>改訂履歴</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>バージョン</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>改訂日</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>改訂内容</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>改訂者</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>2025/05/19</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>初版作成</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>EM開発チーム</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="30" customHeight="1">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>目次</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>項番</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>項目名</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>シート名</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>プロジェクト構成</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>1_プロジェクト構成</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>命名規則</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>2_命名規則</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>型ヒントとドキュメンテーション</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>3_型ヒント</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>Pydanticモデルの使い方</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>4_Pydanticモデル</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>依存関係の注入</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>5_依存関係</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>設定ファイル</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>6_設定ファイル</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>ログ出力の統一</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>7_ログ出力</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>テストの命名と構成</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>8_テスト</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>推奨ツール</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>9_推奨ツール</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="30" customHeight="1">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>1. プロジェクト構成</t>
         </is>
       </c>
     </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>FastAPIプロジェクトの標準的なディレクトリ構成を以下に示します。この構成に従うことで、コードの可読性と保守性が向上します。</t>
+        </is>
+      </c>
+    </row>
     <row r="5" ht="200" customHeight="1">
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>ディレクトリ構成</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 app/
@@ -511,98 +1187,439 @@
 │   └── session.py
 ├── main.py           # アプリケーションのエントリーポイント
 └── dependencies/     # 共通依存関係
-        </t>
+    </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>ディレクトリの役割</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>api/</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>APIエンドポイントとルーティングを定義します。バージョン管理のためにv1などのサブディレクトリを使用します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>core/</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>アプリケーションの中核となる設定や初期化処理を配置します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>models/</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>データベースモデル（SQLAlchemy）とスキーマ（Pydantic）を定義します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>services/</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>ビジネスロジックを実装します。APIとデータベース層の間の処理を担当します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>db/</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>データベース接続やセッション管理に関するコードを配置します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>dependencies/</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>FastAPIの依存関係（Depends）を定義します。認証やデータベースセッションなど。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="30" customHeight="1">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>2. 命名規則</t>
         </is>
       </c>
     </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>一貫性のある命名規則を使用することで、コードの可読性と保守性が向上します。以下の命名規則に従ってください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>項目</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>規則</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>例</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>ファイル名</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>snake_case</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>user_service.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>クラス名</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>PascalCase</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>UserService</t>
+        </is>
+      </c>
+    </row>
     <row r="8">
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>ファイル名</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>snake_case（例: user_service.py）</t>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>関数・変数名</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>snake_case</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>get_user_by_id</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>クラス名</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>PascalCase（例: UserService）</t>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>定数</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>UPPER_CASE</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>MAX_CONNECTIONS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>関数・変数名</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>snake_case（例: get_user_by_id）</t>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>モジュール名</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>snake_case</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>auth_utils</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>定数</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>UPPER_CASE（例: MAX_CONNECTIONS）</t>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>パッケージ名</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>snake_case</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>api_client</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>エンドポイント</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>kebab-case</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>/api/v1/user-profiles</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>データベーステーブル</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>snake_case、複数形</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>user_profiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="25" customHeight="1">
+      <c r="B15" s="16" t="inlineStr">
+        <is>
+          <t>命名のベストプラクティス</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>• 意味のある名前を使用する（x, y, tempなどの意味のない名前は避ける）</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="9" t="inlineStr">
+        <is>
+          <t>• 略語は一般的に知られているもの以外は避ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>• 関数名は動詞から始める（get_user, create_item）</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>• ブール値を返す関数は is_, has_, can_ などから始める（is_active, has_permission）</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>• 一貫性を保つ（同じ概念には同じ命名パターンを使用する）</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>3. 型ヒントとドキュメンテーション</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="150" customHeight="1">
-      <c r="C14" s="4" t="inlineStr">
+    <row r="3">
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>型ヒントとドキュメンテーションを使用することで、コードの理解しやすさと保守性が向上します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>型ヒントの基本</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-from typing import List
-from fastapi import APIRouter
-router = APIRouter()
-@router.get("/users", response_model=List[UserResponse])
-def get_users() -&gt; List[UserResponse]:
-    """
-    ユーザー一覧を取得するエンドポイント
-    """
-    return user_service.get_all_users()
-        </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="inlineStr">
+def get_user_by_id(user_id: int) -&gt; dict:
+    """ユーザーIDからユーザー情報を取得する"""
+    </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>4. Pydanticモデルの使い方</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="120" customHeight="1">
-      <c r="C17" s="4" t="inlineStr">
+    <row r="3">
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>Pydanticモデルを使用して、APIのリクエストとレスポンスのデータ構造を定義します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>基本的なモデル</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 from pydantic import BaseModel, EmailStr
@@ -611,19 +1628,59 @@
     password: str
     class Config:
         orm_mode = True
-        </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="inlineStr">
+    </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>5. 依存関係の注入</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="120" customHeight="1">
-      <c r="C20" s="4" t="inlineStr">
+    <row r="3">
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>FastAPIの依存関係注入システムを使用して、コードの再利用性と保守性を向上させます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>基本的な依存関係</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 from fastapi import Depends
@@ -632,19 +1689,59 @@
 @router.post("/users")
 def create_user(user: UserCreate, db: Session = Depends(get_db)):
     return user_service.create_user(db, user)
-        </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="2" t="inlineStr">
+    </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>6. 設定ファイル</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="150" customHeight="1">
-      <c r="C23" s="4" t="inlineStr">
+    <row r="3">
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>アプリケーションの設定は環境変数から読み込み、Pydanticモデルを使用して型安全に管理します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>設定クラス</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 from pydantic import BaseSettings
@@ -654,138 +1751,15 @@
     class Config:
         env_file = ".env"
 settings = Settings()
-        </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>7. ログ出力の統一</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="80" customHeight="1">
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-import logging
-logger = logging.getLogger(__name__)
-logger.setLevel(logging.INFO)
-        </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>8. テストの命名と構成</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>テストの配置</t>
-        </is>
-      </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>`tests/` ディレクトリに配置</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>テスト関数の命名</t>
-        </is>
-      </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>テスト関数は `test_` で始める</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>テストフレームワーク</t>
-        </is>
-      </c>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>`pytest` を使用</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="80" customHeight="1">
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def test_create_user(client):
-    response = client.post("/users", json={"email": "test@example.com", "password": "123456"})
-    assert response.status_code == 200
-        </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>9. 推奨ツール</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>コードフォーマッター</t>
-        </is>
-      </c>
-      <c r="C35" s="6" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>インポート整理</t>
-        </is>
-      </c>
-      <c r="C36" s="6" t="inlineStr">
-        <is>
-          <t>isort</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>静的型チェック</t>
-        </is>
-      </c>
-      <c r="C37" s="6" t="inlineStr">
-        <is>
-          <t>mypy</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>リンター</t>
-        </is>
-      </c>
-      <c r="C38" s="6" t="inlineStr">
-        <is>
-          <t>ruff</t>
+    </t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DOC/コーディング規約/コーディング規約.xlsx
+++ b/DOC/コーディング規約/コーディング規約.xlsx
@@ -1133,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,105 +1166,184 @@
           <t>ディレクトリ構成</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-app/
-├── api/              # ルーティング関連
-│   ├── v1/
-│   │   ├── endpoints/
-│   │   │   └── user.py
-│   │   └── router.py
-├── core/             # 設定や初期化処理
-│   ├── config.py
-│   └── security.py
-├── models/           # PydanticモデルやORMモデル
-│   └── user.py
-├── services/         # ビジネスロジック
-│   └── user_service.py
-├── db/               # DB接続やセッション管理
-│   ├── base.py
-│   └── session.py
-├── main.py           # アプリケーションのエントリーポイント
-└── dependencies/     # 共通依存関係
-    </t>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>app/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>├── api/              # ルーティング関連</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="15" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="15" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="15" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="15" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="15" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="15" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="15" t="n"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>├── models/           # PydanticモデルやORMモデル</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>│   └── user.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>├── services/         # ビジネスロジック</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>│   └── user_service.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>├── db/               # DB接続やセッション管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>│   ├── base.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>│   └── session.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>├── main.py           # アプリケーションのエントリーポイント</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="15" t="inlineStr">
+        <is>
+          <t>└── dependencies/     # 共通依存関係</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="11" t="inlineStr">
         <is>
           <t>ディレクトリの役割</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="13" t="inlineStr">
+    <row r="26">
+      <c r="B26" s="13" t="inlineStr">
         <is>
           <t>api/</t>
         </is>
       </c>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="C26" s="14" t="inlineStr">
         <is>
           <t>APIエンドポイントとルーティングを定義します。バージョン管理のためにv1などのサブディレクトリを使用します。</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="13" t="inlineStr">
+    <row r="27">
+      <c r="B27" s="13" t="inlineStr">
         <is>
           <t>core/</t>
         </is>
       </c>
-      <c r="C9" s="14" t="inlineStr">
+      <c r="C27" s="14" t="inlineStr">
         <is>
           <t>アプリケーションの中核となる設定や初期化処理を配置します。</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="13" t="inlineStr">
+    <row r="28">
+      <c r="B28" s="13" t="inlineStr">
         <is>
           <t>models/</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C28" s="14" t="inlineStr">
         <is>
           <t>データベースモデル（SQLAlchemy）とスキーマ（Pydantic）を定義します。</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="13" t="inlineStr">
+    <row r="29">
+      <c r="B29" s="13" t="inlineStr">
         <is>
           <t>services/</t>
         </is>
       </c>
-      <c r="C11" s="14" t="inlineStr">
+      <c r="C29" s="14" t="inlineStr">
         <is>
           <t>ビジネスロジックを実装します。APIとデータベース層の間の処理を担当します。</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="13" t="inlineStr">
+    <row r="30">
+      <c r="B30" s="13" t="inlineStr">
         <is>
           <t>db/</t>
         </is>
       </c>
-      <c r="C12" s="14" t="inlineStr">
+      <c r="C30" s="14" t="inlineStr">
         <is>
           <t>データベース接続やセッション管理に関するコードを配置します。</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="13" t="inlineStr">
+    <row r="31">
+      <c r="B31" s="13" t="inlineStr">
         <is>
           <t>dependencies/</t>
         </is>
       </c>
-      <c r="C13" s="14" t="inlineStr">
+      <c r="C31" s="14" t="inlineStr">
         <is>
           <t>FastAPIの依存関係（Depends）を定義します。認証やデータベースセッションなど。</t>
         </is>
@@ -1513,8 +1592,8 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B20:D20"/>
